--- a/Code/AgenticAdr.xlsx
+++ b/Code/AgenticAdr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
   <si>
     <t>Timestamp</t>
   </si>
@@ -101,6 +101,28 @@
 Comments: All the ADRs generated were to the point and correct. Dir4 is better than the other dir. Would have liked to have a seperation of the consequences into positive and negative. </t>
   </si>
   <si>
+    <t>Aneesh</t>
+  </si>
+  <si>
+    <t>sambu.aneesh@research.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>https://github.com/sambuaneesh/why-py</t>
+  </si>
+  <si>
+    <t>it pretty much captured everything spot on, whatever it wrote was accurate, but it didnt capture every decision and wasnt connecting different decisions that lead to the change (like there is a chain involved for making different decision)
+the pros and cons listed are very few, there are more to these than just listed</t>
+  </si>
+  <si>
+    <t>few decisions context feels quite redundant. also adrs seem very abstract and generic in this case. it just took different files and just kinda summarizing these files (previous adr was much better)</t>
+  </si>
+  <si>
+    <t>ok, this thing actually captured different underlying decisions rather than just summarizing out the files like the 2nd one. whatever it did so far was the best one, but it couldnt cover all the decisions made though.</t>
+  </si>
+  <si>
+    <t>brevity is okay, but this is too concise losing details. the reasons are not explaining the underlying depth behind the decision (dir3 was doing that)</t>
+  </si>
+  <si>
     <t>Is it your repository?</t>
   </si>
   <si>
@@ -185,15 +207,6 @@
     <t>https://gitlab.com/20a_akhila/silly_story_generator</t>
   </si>
   <si>
-    <t>Aneesh</t>
-  </si>
-  <si>
-    <t>sambu.aneesh@research.iiit.ac.in</t>
-  </si>
-  <si>
-    <t>https://github.com/sambuaneesh/why-py</t>
-  </si>
-  <si>
     <t>Sreemaee Akshathala</t>
   </si>
   <si>
@@ -201,6 +214,12 @@
   </si>
   <si>
     <t>https://github.com/montycloud/moya</t>
+  </si>
+  <si>
+    <t>sreemaee.akshathala@research.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>https://github.com/stanfordnlp/dspy</t>
   </si>
 </sst>
 </file>
@@ -316,48 +335,6 @@
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
     </border>
@@ -387,6 +364,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
       </bottom>
     </border>
     <border>
@@ -436,10 +455,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -447,13 +466,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -461,13 +480,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -538,16 +557,16 @@
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -629,7 +648,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:AC2" displayName="Form_Responses2" name="Form_Responses2" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:AC3" displayName="Form_Responses2" name="Form_Responses2" id="1">
   <tableColumns count="29">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -671,7 +690,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E19" displayName="Form_Responses" name="Form_Responses" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E20" displayName="Form_Responses" name="Form_Responses" id="2">
   <tableColumns count="5">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -1097,13 +1116,103 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="8">
+        <v>45943.47146395833</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="P3" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="S3" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="T3" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="U3" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="V3" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="AC3" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D3"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1123,7 +1232,7 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="18.88"/>
     <col customWidth="1" min="3" max="3" width="31.63"/>
-    <col customWidth="1" min="4" max="4" width="61.38"/>
+    <col customWidth="1" min="4" max="4" width="48.25"/>
     <col customWidth="1" min="5" max="5" width="20.0"/>
     <col customWidth="1" min="6" max="11" width="18.88"/>
   </cols>
@@ -1142,24 +1251,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="4">
         <v>45934.411974201386</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>19</v>
+      <c r="E2" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -1167,33 +1276,33 @@
         <v>45935.6874683912</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>45935.68841295139</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>23</v>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1201,33 +1310,33 @@
         <v>45937.37473196759</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>45937.375662604165</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1235,16 +1344,16 @@
         <v>45939.398966747685</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -1252,16 +1361,16 @@
         <v>45939.39946393519</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1269,16 +1378,16 @@
         <v>45939.42655188657</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1286,16 +1395,16 @@
         <v>45939.46848215278</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -1303,16 +1412,16 @@
         <v>45939.46881931713</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -1320,16 +1429,16 @@
         <v>45939.46913090278</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1337,16 +1446,16 @@
         <v>45939.469453136575</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1354,16 +1463,16 @@
         <v>45939.47011765046</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1371,16 +1480,16 @@
         <v>45939.47123679398</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
@@ -1388,16 +1497,16 @@
         <v>45939.4715616551</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -1405,16 +1514,16 @@
         <v>45939.4719315625</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -1422,33 +1531,50 @@
         <v>45940.769390347225</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="24">
+      <c r="A19" s="16">
         <v>45941.749629618054</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>19</v>
+      <c r="B19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="24">
+        <v>45942.95912383102</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1471,10 +1597,11 @@
     <hyperlink r:id="rId16" ref="D17"/>
     <hyperlink r:id="rId17" ref="D18"/>
     <hyperlink r:id="rId18" ref="D19"/>
+    <hyperlink r:id="rId19" ref="D20"/>
   </hyperlinks>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Code/AgenticAdr.xlsx
+++ b/Code/AgenticAdr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="104">
   <si>
     <t>Timestamp</t>
   </si>
@@ -123,6 +123,53 @@
     <t>brevity is okay, but this is too concise losing details. the reasons are not explaining the underlying depth behind the decision (dir3 was doing that)</t>
   </si>
   <si>
+    <t>Sreemaee Akshathala</t>
+  </si>
+  <si>
+    <t>sreemaee.akshathala@research.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>https://github.com/stanfordnlp/dspy</t>
+  </si>
+  <si>
+    <t>short number of ADRs for the repo size, could've been more ADRs with smaller number of decisions per ADR. This tried to club multiple decisions together which made them a bit too long and not really single decisions</t>
+  </si>
+  <si>
+    <t>Short clear crisp ADRs
+more number of ADRs so covers all the important aspects of the repo in "modularised" ADR files, not a lot of decisions packed into single one 
+Con: not in perfect markdown format
+has status, context, decision, and consequences</t>
+  </si>
+  <si>
+    <t>The consequences are not divided into positive and negative. The consequences sections all start with "This makes the...", "this causes..." instead of concise bullet points. This paragraph style prevents the reader from quickly getting the gist of the positive or negative impacts of the decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too brief. The context basically lists the classes/functions with no other context. Example - "Tools include PythonInterpreter, Embeddings, and ColBERTv2; modules include ReAct/CodeAct patterns." 
+Every single ADR has the same context. this does not help me understand the context nor the decision, which is also too brief to understand anything 
+Pros and cons are separated but the ADRs directory itself does not help me understand the repo. The code comments may help me better than this does. </t>
+  </si>
+  <si>
+    <t>Amey Karan</t>
+  </si>
+  <si>
+    <t>amey.karan@research.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>github.com/ameykaran/esell/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ADRs capture the overall decisions that were taken, but fails to capture nitty-gritty details, such as why a template-based video generation was preferred. </t>
+  </si>
+  <si>
+    <t>This set of ADRs dont necessarily capture the design decisions. They just provide details about the tech stack that was used - each ADR for a tech stack. Capturing of actual architectural knowledge is missing.</t>
+  </si>
+  <si>
+    <t>This method is the best till now. It clearly captures each decision, although not necessarily the choices that led to the decision, but it is still best till now</t>
+  </si>
+  <si>
+    <t>This method produces too many ADRs. Most of them are unnecessary. However, there are some interesting ones like using intermediate JSON representation, server based local file system</t>
+  </si>
+  <si>
     <t>Is it your repository?</t>
   </si>
   <si>
@@ -207,19 +254,115 @@
     <t>https://gitlab.com/20a_akhila/silly_story_generator</t>
   </si>
   <si>
-    <t>Sreemaee Akshathala</t>
-  </si>
-  <si>
     <t>sreemaee2121@gmail.com</t>
   </si>
   <si>
     <t>https://github.com/montycloud/moya</t>
   </si>
   <si>
-    <t>sreemaee.akshathala@research.iiit.ac.in</t>
-  </si>
-  <si>
-    <t>https://github.com/stanfordnlp/dspy</t>
+    <t>Miryala Sathvika</t>
+  </si>
+  <si>
+    <t>miryala.sathvika@research.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>https://github.com/miryala10sathvika/Food-delivery</t>
+  </si>
+  <si>
+    <t>https://github.com/miryala10sathvika/Drawingeditor</t>
+  </si>
+  <si>
+    <t>Prakhar Singhal</t>
+  </si>
+  <si>
+    <t>singhalprakhar7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/legend479/HARPP</t>
+  </si>
+  <si>
+    <t>Divyansh Pandey</t>
+  </si>
+  <si>
+    <t>divyansh.pandey@students.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>https://github.com/divyanash911/RSS-Reader</t>
+  </si>
+  <si>
+    <t>https://github.com/divyanash911/design-for-social-innovation-project</t>
+  </si>
+  <si>
+    <t>Vyakhya</t>
+  </si>
+  <si>
+    <t>vyakhya.gupta@students.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>https://github.com/OSDG-IIITH/CabMiloge</t>
+  </si>
+  <si>
+    <t>Shrikara A</t>
+  </si>
+  <si>
+    <t>shrikara@sudokara.com</t>
+  </si>
+  <si>
+    <t>https://github.com/sudokara/monkeytpe-contest</t>
+  </si>
+  <si>
+    <t>https://github.com/sudokara/bracket</t>
+  </si>
+  <si>
+    <t>https://github.com/sudokara/SpecFlow</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/sarathi-serve</t>
+  </si>
+  <si>
+    <t>Adyansh Kakran</t>
+  </si>
+  <si>
+    <t>adyansh.kakran@research.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>https://github.com/Poorvi-HC/DIP-Project</t>
+  </si>
+  <si>
+    <t>https://github.com/adyanshkakran/RL_project</t>
+  </si>
+  <si>
+    <t>https://github.com/adyanshkakran/Shravana</t>
+  </si>
+  <si>
+    <t>https://github.com/sudokara/SE_Project_3</t>
+  </si>
+  <si>
+    <t>https://github.com/adyanshkakran/MLOps</t>
+  </si>
+  <si>
+    <t>https://github.com/adyanshkakran/Reddit-clone</t>
+  </si>
+  <si>
+    <t>https://github.com/adyanshkakran/need-for-speed</t>
+  </si>
+  <si>
+    <t>Muhammed Basil</t>
+  </si>
+  <si>
+    <t>basil@montycloud.com</t>
+  </si>
+  <si>
+    <t>https://github.com/Moya/Moya</t>
+  </si>
+  <si>
+    <t>Meaghan Tedla</t>
+  </si>
+  <si>
+    <t>meghana.tedla@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/sismics/music/tree/master</t>
   </si>
 </sst>
 </file>
@@ -377,6 +520,48 @@
         <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
     </border>
@@ -406,48 +591,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF8F9FA"/>
       </bottom>
     </border>
     <border>
@@ -533,40 +676,40 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -648,7 +791,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:AC3" displayName="Form_Responses2" name="Form_Responses2" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:AC5" displayName="Form_Responses2" name="Form_Responses2" id="1">
   <tableColumns count="29">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -690,7 +833,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E20" displayName="Form_Responses" name="Form_Responses" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E40" displayName="Form_Responses" name="Form_Responses" id="2">
   <tableColumns count="5">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -1205,14 +1348,194 @@
         <v>24</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="12">
+        <v>45944.69330466435</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="J4" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="O4" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="P4" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="S4" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="T4" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="U4" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="V4" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AC4" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16">
+        <v>45944.81513122685</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="G5" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="H5" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="I5" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="N5" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="O5" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="P5" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="S5" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="T5" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="U5" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="V5" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="Y5" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="AA5" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="AB5" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="AC5" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
     <hyperlink r:id="rId2" ref="D3"/>
+    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink r:id="rId4" ref="D5"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1251,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -1268,24 +1591,24 @@
         <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12">
+      <c r="A3" s="20">
         <v>45935.6874683912</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>30</v>
+      <c r="B3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -1293,33 +1616,33 @@
         <v>45935.68841295139</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12">
+      <c r="A5" s="20">
         <v>45937.37473196759</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>26</v>
+      <c r="B5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1327,254 +1650,594 @@
         <v>45937.375662604165</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>45939.398966747685</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12">
+        <v>45939.39946393519</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>45939.42655188657</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12">
+        <v>45939.46848215278</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8">
+        <v>45939.46881931713</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12">
+        <v>45939.46913090278</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8">
+        <v>45939.469453136575</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="12">
+        <v>45939.47011765046</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8">
+        <v>45939.47123679398</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="12">
+        <v>45939.4715616551</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8">
+        <v>45939.4719315625</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="12">
+        <v>45940.769390347225</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8">
+        <v>45941.749629618054</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12">
+        <v>45942.95912383102</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8">
+        <v>45943.75938251158</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="12">
+        <v>45943.76068791667</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8">
+        <v>45943.762280532406</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="12">
+        <v>45943.77945240741</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8">
+        <v>45943.78019240741</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="12">
+        <v>45943.80242072917</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8">
+        <v>45943.80317114583</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="12">
+        <v>45943.80344609954</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8">
+        <v>45943.80411287037</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="12">
+        <v>45943.80511638889</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8">
+        <v>45943.81834320602</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="12">
+        <v>45943.81866615741</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8">
+        <v>45943.819046770834</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="12">
+        <v>45943.81948928241</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8">
+        <v>45943.819892604166</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="12">
+        <v>45943.82017013889</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8">
+        <v>45943.820890856485</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="12">
+        <v>45943.88293743056</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8">
+        <v>45944.39525381944</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="24">
+        <v>45944.41738416666</v>
+      </c>
+      <c r="B40" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C40" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="16">
-        <v>45939.398966747685</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="20">
-        <v>45939.39946393519</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="16">
-        <v>45939.42655188657</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="20">
-        <v>45939.46848215278</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="16">
-        <v>45939.46881931713</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="20">
-        <v>45939.46913090278</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="16">
-        <v>45939.469453136575</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="20">
-        <v>45939.47011765046</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="16">
-        <v>45939.47123679398</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="20">
-        <v>45939.4715616551</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="16">
-        <v>45939.4719315625</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="20">
-        <v>45940.769390347225</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="16">
-        <v>45941.749629618054</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24">
-        <v>45942.95912383102</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>30</v>
+      <c r="D40" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1598,10 +2261,30 @@
     <hyperlink r:id="rId17" ref="D18"/>
     <hyperlink r:id="rId18" ref="D19"/>
     <hyperlink r:id="rId19" ref="D20"/>
+    <hyperlink r:id="rId20" ref="D21"/>
+    <hyperlink r:id="rId21" ref="D22"/>
+    <hyperlink r:id="rId22" ref="D23"/>
+    <hyperlink r:id="rId23" ref="D24"/>
+    <hyperlink r:id="rId24" ref="D25"/>
+    <hyperlink r:id="rId25" ref="D26"/>
+    <hyperlink r:id="rId26" ref="D27"/>
+    <hyperlink r:id="rId27" ref="D28"/>
+    <hyperlink r:id="rId28" ref="D29"/>
+    <hyperlink r:id="rId29" ref="D30"/>
+    <hyperlink r:id="rId30" ref="D31"/>
+    <hyperlink r:id="rId31" ref="D32"/>
+    <hyperlink r:id="rId32" ref="D33"/>
+    <hyperlink r:id="rId33" ref="D34"/>
+    <hyperlink r:id="rId34" ref="D35"/>
+    <hyperlink r:id="rId35" ref="D36"/>
+    <hyperlink r:id="rId36" ref="D37"/>
+    <hyperlink r:id="rId37" ref="D38"/>
+    <hyperlink r:id="rId38" ref="D39"/>
+    <hyperlink r:id="rId39" ref="D40"/>
   </hyperlinks>
-  <drawing r:id="rId20"/>
+  <drawing r:id="rId40"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId42"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Code/AgenticAdr.xlsx
+++ b/Code/AgenticAdr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="134">
   <si>
     <t>Timestamp</t>
   </si>
@@ -170,6 +170,107 @@
     <t>This method produces too many ADRs. Most of them are unnecessary. However, there are some interesting ones like using intermediate JSON representation, server based local file system</t>
   </si>
   <si>
+    <t>Miryala Sathvika</t>
+  </si>
+  <si>
+    <t>miryala.sathvika@research.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>https://github.com/miryala10sathvika/Food-delivery</t>
+  </si>
+  <si>
+    <t>the issue here was it was concentrated very much on the technologies. Other than technology the ADRs didn't talk about anything else.</t>
+  </si>
+  <si>
+    <t>these generated ADRs are too small. the decisions were just captured. Like I guess if we just look at GitHub we can infer. the decision was information, not a decision. It is not clearly a right ADR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">here, the format is a bit different from the usual expected ADRs in the consequences part. especially date is added and also the context and decisions are clear than previous types.
+</t>
+  </si>
+  <si>
+    <t>the good thing here is it is trying to capture some architecture part of the repository not only technology and some of the context and decisions were better but the issue is with the consequences, everything is added under consequences and there is no positive and negative</t>
+  </si>
+  <si>
+    <t>Prakhar Singhal</t>
+  </si>
+  <si>
+    <t>singhalprakhar7@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/legend479/HARPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too Vague and don't really point to specific Architectural Decisions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ADR generated captured some actual design taken for the project but fail to actually link it to implementation but seems to go entirely off structures and files </t>
+  </si>
+  <si>
+    <t>Liked the formatting of these ADRs the most out of the provided bunch, clear and focuses on specific decision rather than generic observation that other ADR dirs feels like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generated document that don't see like recording any design/architectural or any other decision on the repository. The ADRs show good coverage understanding but does seem to fall short on actually compiling these into comprehensive ADR documents.   </t>
+  </si>
+  <si>
+    <t>https://github.com/miryala10sathvika/Drawingeditor</t>
+  </si>
+  <si>
+    <t>the context is kind of misleading and not captured right, but the consequences are mapped correctly and positives and negatives are clearly mentioned</t>
+  </si>
+  <si>
+    <t>the decisions are too concise, they are single liner with no reasoning which is the main aspect to be captured</t>
+  </si>
+  <si>
+    <t>the decisions and context are captured better than all the previous files. the structure where the consequences are included has no separation between positive and negative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the number of ADRs generated is huge and each of them is very minimal capturing very less information which should not be the case.
+</t>
+  </si>
+  <si>
+    <t>Shrikara A</t>
+  </si>
+  <si>
+    <t>shrikara@sudokara.com</t>
+  </si>
+  <si>
+    <t>https://github.com/sudokara/monkeytpe-contest</t>
+  </si>
+  <si>
+    <t>Very verbose context, consequences are also too wordy</t>
+  </si>
+  <si>
+    <t>Some ADRs did not feel significant enough to warrant an architectural decision (ex: using npm and a startup script). The context is observation from the repository and is of the form of "the repository contains this, therefore this decision was taken", making the decision field unnecessary. Consequences were well organized and short.</t>
+  </si>
+  <si>
+    <t>Context is well written, with a focus on the requirements of the functionality and the constraints in place. Consequences could have been formatted into pros and cons rather than a single block of text, but the identified consequences are good. Others had status inferred, this had status proposed. That is probably not the correct status to use.</t>
+  </si>
+  <si>
+    <t>Context is lacking information or constraints on requirements or implementation. It simply consists of an assertion that "x was observed in the repository" or "y technology does z". Hard to appreciate why a decision was taken or even needed with such little information. This even makes some ADRs borderline wrong. Too many ADRs, some on not very architectural decisions. Consequences could have been split into pros and cons.</t>
+  </si>
+  <si>
+    <t>Likhith Kanigolla</t>
+  </si>
+  <si>
+    <t>likhith.kanigolla@research.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>https://github.com/likhithkanigolla/CAPS-IIITH</t>
+  </si>
+  <si>
+    <t>These ADR's talks about the file structure rather than the critical logic. ADR-001 provides good context about MDE adoption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is very good, each ADR is talking about one property or one feature, but the decision part can be  better. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks like a documentation, some ADRs decisions part is not clear. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I liked these, these are straight to the point and clear and crisp. Context and Decision is super linked and relevant to the codebase. </t>
+  </si>
+  <si>
     <t>Is it your repository?</t>
   </si>
   <si>
@@ -191,18 +292,9 @@
     <t>https://github.com/srini1978/AzureCognitiveSearchDemo</t>
   </si>
   <si>
-    <t>Likhith Kanigolla</t>
-  </si>
-  <si>
-    <t>likhith.kanigolla@research.iiit.ac.in</t>
-  </si>
-  <si>
     <t>https://github.com/likhithkanigolla/LLMOps-Platform</t>
   </si>
   <si>
-    <t>https://github.com/likhithkanigolla/CAPS-IIITH</t>
-  </si>
-  <si>
     <t>Arihant Tripathy</t>
   </si>
   <si>
@@ -260,27 +352,6 @@
     <t>https://github.com/montycloud/moya</t>
   </si>
   <si>
-    <t>Miryala Sathvika</t>
-  </si>
-  <si>
-    <t>miryala.sathvika@research.iiit.ac.in</t>
-  </si>
-  <si>
-    <t>https://github.com/miryala10sathvika/Food-delivery</t>
-  </si>
-  <si>
-    <t>https://github.com/miryala10sathvika/Drawingeditor</t>
-  </si>
-  <si>
-    <t>Prakhar Singhal</t>
-  </si>
-  <si>
-    <t>singhalprakhar7@gmail.com</t>
-  </si>
-  <si>
-    <t>https://github.com/legend479/HARPP</t>
-  </si>
-  <si>
     <t>Divyansh Pandey</t>
   </si>
   <si>
@@ -302,15 +373,6 @@
     <t>https://github.com/OSDG-IIITH/CabMiloge</t>
   </si>
   <si>
-    <t>Shrikara A</t>
-  </si>
-  <si>
-    <t>shrikara@sudokara.com</t>
-  </si>
-  <si>
-    <t>https://github.com/sudokara/monkeytpe-contest</t>
-  </si>
-  <si>
     <t>https://github.com/sudokara/bracket</t>
   </si>
   <si>
@@ -363,6 +425,36 @@
   </si>
   <si>
     <t>https://github.com/sismics/music/tree/master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubham Kulkarni </t>
+  </si>
+  <si>
+    <t>shubhamkstar@gmail.com</t>
+  </si>
+  <si>
+    <t>Dharmineni Sree Yashaswinee</t>
+  </si>
+  <si>
+    <t>sreeyashaswinee@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/yashaswinee/QuizAppMicroservices/tree/microservices</t>
+  </si>
+  <si>
+    <t>Shailender Goyal</t>
+  </si>
+  <si>
+    <t>shailender.goyal@research.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>https://github.com/ShailenderGoyal/Enigmatrix_Salesforce_Hackathon</t>
+  </si>
+  <si>
+    <t>https://github.com/someyuck/Project-Kuch-Bhi</t>
+  </si>
+  <si>
+    <t>https://github.com/ShailenderGoyal/PageRank-Algorithm</t>
   </si>
 </sst>
 </file>
@@ -556,6 +648,48 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
         <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
@@ -588,48 +722,6 @@
       </right>
       <top style="thin">
         <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -791,7 +883,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:AC5" displayName="Form_Responses2" name="Form_Responses2" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:AC10" displayName="Form_Responses2" name="Form_Responses2" id="1">
   <tableColumns count="29">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -833,7 +925,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E40" displayName="Form_Responses" name="Form_Responses" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E45" displayName="Form_Responses" name="Form_Responses" id="2">
   <tableColumns count="5">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -1438,92 +1530,537 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16">
+      <c r="A5" s="8">
         <v>45944.81513122685</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="9">
         <v>0.0</v>
       </c>
-      <c r="F5" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="G5" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="H5" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="I5" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="J5" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="K5" s="17" t="s">
+      <c r="F5" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="M5" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="N5" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="O5" s="17">
+      <c r="L5" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="O5" s="9">
         <v>2.0</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="9">
         <v>2.0</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="S5" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="T5" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="U5" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="V5" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="W5" s="17" t="s">
+      <c r="R5" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="S5" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="T5" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="U5" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="V5" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="W5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="Y5" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="Z5" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="AA5" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="AB5" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="AC5" s="19" t="s">
+      <c r="X5" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="AC5" s="11" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12">
+        <v>45944.97269001158</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="O6" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="S6" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="T6" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="U6" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="V6" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="X6" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="AC6" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8">
+        <v>45945.07269579861</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="X7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12">
+        <v>45945.07844920139</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="N8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="S8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="T8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="U8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="V8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="AC8" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8">
+        <v>45945.808531539355</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="T9" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="X9" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="16">
+        <v>45946.65276008102</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="G10" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="N10" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="O10" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="P10" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="S10" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="T10" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="U10" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="V10" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="W10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="X10" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="Y10" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="AA10" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="AB10" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="AC10" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1532,10 +2069,15 @@
     <hyperlink r:id="rId2" ref="D3"/>
     <hyperlink r:id="rId3" ref="D4"/>
     <hyperlink r:id="rId4" ref="D5"/>
+    <hyperlink r:id="rId5" ref="D6"/>
+    <hyperlink r:id="rId6" ref="D7"/>
+    <hyperlink r:id="rId7" ref="D8"/>
+    <hyperlink r:id="rId8" ref="D9"/>
+    <hyperlink r:id="rId9" ref="D10"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1574,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -1591,7 +2133,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -1599,16 +2141,16 @@
         <v>45935.6874683912</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1616,16 +2158,16 @@
         <v>45935.68841295139</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -1633,16 +2175,16 @@
         <v>45937.37473196759</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1650,16 +2192,16 @@
         <v>45937.375662604165</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -1667,16 +2209,16 @@
         <v>45939.398966747685</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -1684,16 +2226,16 @@
         <v>45939.39946393519</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -1701,16 +2243,16 @@
         <v>45939.42655188657</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1718,16 +2260,16 @@
         <v>45939.46848215278</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1735,16 +2277,16 @@
         <v>45939.46881931713</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -1752,16 +2294,16 @@
         <v>45939.46913090278</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -1769,16 +2311,16 @@
         <v>45939.469453136575</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -1786,16 +2328,16 @@
         <v>45939.47011765046</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -1803,16 +2345,16 @@
         <v>45939.47123679398</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -1820,16 +2362,16 @@
         <v>45939.4715616551</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -1837,16 +2379,16 @@
         <v>45939.4719315625</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
@@ -1863,7 +2405,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -1874,13 +2416,13 @@
         <v>25</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -1897,7 +2439,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -1905,16 +2447,16 @@
         <v>45943.75938251158</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -1922,16 +2464,16 @@
         <v>45943.76068791667</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -1939,16 +2481,16 @@
         <v>45943.762280532406</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -1956,16 +2498,16 @@
         <v>45943.77945240741</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1973,16 +2515,16 @@
         <v>45943.78019240741</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
@@ -1990,16 +2532,16 @@
         <v>45943.80242072917</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -2007,16 +2549,16 @@
         <v>45943.80317114583</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
@@ -2024,16 +2566,16 @@
         <v>45943.80344609954</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -2041,16 +2583,16 @@
         <v>45943.80411287037</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -2058,16 +2600,16 @@
         <v>45943.80511638889</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -2075,16 +2617,16 @@
         <v>45943.81834320602</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
@@ -2092,16 +2634,16 @@
         <v>45943.81866615741</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
@@ -2109,16 +2651,16 @@
         <v>45943.819046770834</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
@@ -2126,16 +2668,16 @@
         <v>45943.81948928241</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
@@ -2143,16 +2685,16 @@
         <v>45943.819892604166</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
@@ -2160,16 +2702,16 @@
         <v>45943.82017013889</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
@@ -2177,16 +2719,16 @@
         <v>45943.820890856485</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
@@ -2194,16 +2736,16 @@
         <v>45943.88293743056</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -2211,33 +2753,118 @@
         <v>45944.39525381944</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="24">
+      <c r="A40" s="12">
         <v>45944.41738416666</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="27" t="s">
-        <v>40</v>
+      <c r="E40" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8">
+        <v>45944.88423947917</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="12">
+        <v>45945.5456787963</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8">
+        <v>45946.02685496528</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="12">
+        <v>45946.029433668984</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="24">
+        <v>45946.03070726852</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2281,10 +2908,15 @@
     <hyperlink r:id="rId37" ref="D38"/>
     <hyperlink r:id="rId38" ref="D39"/>
     <hyperlink r:id="rId39" ref="D40"/>
+    <hyperlink r:id="rId40" ref="D41"/>
+    <hyperlink r:id="rId41" ref="D42"/>
+    <hyperlink r:id="rId42" ref="D43"/>
+    <hyperlink r:id="rId43" ref="D44"/>
+    <hyperlink r:id="rId44" ref="D45"/>
   </hyperlinks>
-  <drawing r:id="rId40"/>
+  <drawing r:id="rId45"/>
   <tableParts count="1">
-    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId47"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Code/AgenticAdr.xlsx
+++ b/Code/AgenticAdr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="147">
   <si>
     <t>Timestamp</t>
   </si>
@@ -271,6 +271,42 @@
     <t xml:space="preserve">I liked these, these are straight to the point and clear and crisp. Context and Decision is super linked and relevant to the codebase. </t>
   </si>
   <si>
+    <t>Bassam</t>
+  </si>
+  <si>
+    <t>mailbasam@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/pgexporter/pgexporter</t>
+  </si>
+  <si>
+    <t>Pretty good, it missed out details about bridge, compressions, extension support metrics</t>
+  </si>
+  <si>
+    <t>mentioned about the in-house  wire-protocol instead of library include. much more points covered for eg bridge, extensions, versioning etc. A little too small ADRs though.</t>
+  </si>
+  <si>
+    <t>too much focus on embedded things while omitting alot of other important things covered in the dir2.</t>
+  </si>
+  <si>
+    <t>covered almost all facets, but there is a lack of depth to each.</t>
+  </si>
+  <si>
+    <t>https://github.com/sudokara/SpecFlow</t>
+  </si>
+  <si>
+    <t>Context and decision have observations about the codebase (sometimes specific files/packages, which can be renamed/removed). The consequences are too wordy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context is only observations from codebase. Too many ADRs generated, not architecturally relevant. A lot of ADRs seem to come from observations done on requirements.txt, config.toml and other setup helpers. Consequences are concise and to the point </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consequences could have been split into pros and cons. Context and decision well captured. Most ADRs are well done. Some face similar issues as other ones, ie inferring only from requirements.txt and making comments on specific files that exist. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context and decision are too vague and short. Too many ADRs generated, many are about roles of specific files in the codebase. Consequences could have been split into pros and cons. </t>
+  </si>
+  <si>
     <t>Is it your repository?</t>
   </si>
   <si>
@@ -376,9 +412,6 @@
     <t>https://github.com/sudokara/bracket</t>
   </si>
   <si>
-    <t>https://github.com/sudokara/SpecFlow</t>
-  </si>
-  <si>
     <t>https://github.com/microsoft/sarathi-serve</t>
   </si>
   <si>
@@ -455,6 +488,12 @@
   </si>
   <si>
     <t>https://github.com/ShailenderGoyal/PageRank-Algorithm</t>
+  </si>
+  <si>
+    <t>Bassam Adnan</t>
+  </si>
+  <si>
+    <t>mailbassam@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -464,7 +503,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -501,11 +540,6 @@
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -515,7 +549,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -685,53 +719,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -804,18 +796,6 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -860,15 +840,17 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle count="3" pivot="0" name="Form Responses 2-style">
+    <tableStyle count="4" pivot="0" name="Form Responses 2-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Form Responses 1-style">
+    <tableStyle count="4" pivot="0" name="Form Responses 1-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
+      <tableStyleElement size="0" type="wholeTable"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -883,7 +865,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:AC10" displayName="Form_Responses2" name="Form_Responses2" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:AC12" displayName="Form_Responses2" name="Form_Responses2" id="1">
   <tableColumns count="29">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -925,7 +907,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E45" displayName="Form_Responses" name="Form_Responses" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E46" displayName="Form_Responses" name="Form_Responses" id="2">
   <tableColumns count="5">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -1975,92 +1957,270 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16">
+      <c r="A10" s="12">
         <v>45946.65276008102</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="13">
         <v>2.0</v>
       </c>
-      <c r="F10" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="G10" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="H10" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="I10" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="J10" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="K10" s="17" t="s">
+      <c r="F10" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="M10" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="N10" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="O10" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="P10" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="Q10" s="17" t="s">
+      <c r="L10" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="M10" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="N10" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="O10" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="P10" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="Q10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="S10" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="T10" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="U10" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="V10" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="W10" s="17" t="s">
+      <c r="R10" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="S10" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="T10" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="U10" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="V10" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="W10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="X10" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="Y10" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="Z10" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="AA10" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="AB10" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="AC10" s="19" t="s">
+      <c r="X10" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="AC10" s="15" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8">
+        <v>45946.97044625</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="S11" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="T11" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="U11" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="V11" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="X11" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="16">
+        <v>45947.74719896991</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="G12" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="H12" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="N12" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="O12" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="P12" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="R12" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="S12" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="T12" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="U12" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="V12" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="X12" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="Y12" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="AA12" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="AB12" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="AC12" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2074,10 +2234,12 @@
     <hyperlink r:id="rId7" ref="D8"/>
     <hyperlink r:id="rId8" ref="D9"/>
     <hyperlink r:id="rId9" ref="D10"/>
+    <hyperlink r:id="rId10" ref="D11"/>
+    <hyperlink r:id="rId11" ref="D12"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2116,7 +2278,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
@@ -2133,7 +2295,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -2141,16 +2303,16 @@
         <v>45935.6874683912</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
@@ -2158,16 +2320,16 @@
         <v>45935.68841295139</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -2181,10 +2343,10 @@
         <v>66</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -2201,7 +2363,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -2209,16 +2371,16 @@
         <v>45939.398966747685</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -2226,16 +2388,16 @@
         <v>45939.39946393519</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -2243,16 +2405,16 @@
         <v>45939.42655188657</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -2260,16 +2422,16 @@
         <v>45939.46848215278</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -2277,16 +2439,16 @@
         <v>45939.46881931713</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -2294,16 +2456,16 @@
         <v>45939.46913090278</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -2311,16 +2473,16 @@
         <v>45939.469453136575</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -2328,16 +2490,16 @@
         <v>45939.47011765046</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
@@ -2345,16 +2507,16 @@
         <v>45939.47123679398</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -2362,16 +2524,16 @@
         <v>45939.4715616551</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -2379,16 +2541,16 @@
         <v>45939.4719315625</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -2405,7 +2567,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -2416,13 +2578,13 @@
         <v>25</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -2439,7 +2601,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -2456,7 +2618,7 @@
         <v>41</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -2473,7 +2635,7 @@
         <v>53</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -2490,7 +2652,7 @@
         <v>48</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -2498,16 +2660,16 @@
         <v>45943.77945240741</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -2515,16 +2677,16 @@
         <v>45943.78019240741</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -2532,16 +2694,16 @@
         <v>45943.80242072917</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -2558,7 +2720,7 @@
         <v>60</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
@@ -2572,10 +2734,10 @@
         <v>59</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -2589,10 +2751,10 @@
         <v>59</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -2606,10 +2768,10 @@
         <v>59</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
@@ -2617,16 +2779,16 @@
         <v>45943.81834320602</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -2634,16 +2796,16 @@
         <v>45943.81866615741</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -2651,16 +2813,16 @@
         <v>45943.819046770834</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
@@ -2668,16 +2830,16 @@
         <v>45943.81948928241</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -2685,16 +2847,16 @@
         <v>45943.819892604166</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36">
@@ -2702,16 +2864,16 @@
         <v>45943.82017013889</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37">
@@ -2719,16 +2881,16 @@
         <v>45943.820890856485</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -2736,16 +2898,16 @@
         <v>45943.88293743056</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
@@ -2753,16 +2915,16 @@
         <v>45944.39525381944</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
@@ -2779,7 +2941,7 @@
         <v>34</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
@@ -2787,16 +2949,16 @@
         <v>45944.88423947917</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42">
@@ -2804,16 +2966,16 @@
         <v>45945.5456787963</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -2821,16 +2983,16 @@
         <v>45946.02685496528</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
@@ -2838,33 +3000,50 @@
         <v>45946.029433668984</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="24">
+      <c r="A45" s="8">
         <v>45946.03070726852</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>73</v>
+      <c r="B45" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="16">
+        <v>45946.749427523144</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2913,10 +3092,11 @@
     <hyperlink r:id="rId42" ref="D43"/>
     <hyperlink r:id="rId43" ref="D44"/>
     <hyperlink r:id="rId44" ref="D45"/>
+    <hyperlink r:id="rId45" ref="D46"/>
   </hyperlinks>
-  <drawing r:id="rId45"/>
+  <drawing r:id="rId46"/>
   <tableParts count="1">
-    <tablePart r:id="rId47"/>
+    <tablePart r:id="rId48"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Code/AgenticAdr.xlsx
+++ b/Code/AgenticAdr.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAB\ADR\AgenticAdr\Code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83E7A5F-7DD3-481B-A32B-DACC3DD8F3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 2" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Form Responses 1" sheetId="2" r:id="rId5"/>
+    <sheet name="Form Responses 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Form Responses 1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="217">
   <si>
     <t>Timestamp</t>
   </si>
@@ -307,6 +316,314 @@
     <t xml:space="preserve">Context and decision are too vague and short. Too many ADRs generated, many are about roles of specific files in the codebase. Consequences could have been split into pros and cons. </t>
   </si>
   <si>
+    <t>Adyansh Kakran</t>
+  </si>
+  <si>
+    <t>adyansh.kakran@research.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>https://github.com/adyanshkakran/need-for-speed</t>
+  </si>
+  <si>
+    <t>solid foundation but misses game-specific concerns
+formatting could be more consistent</t>
+  </si>
+  <si>
+    <t>most professional set with consistent structure
+great coverage of dev tooling rationale
+could use more game mechanics coverage</t>
+  </si>
+  <si>
+    <t>proper ADR format but too few decisions covered
+good starting point but needs expansion</t>
+  </si>
+  <si>
+    <t>very wide coverage of all aspects of the game
+excellent balance of technical and user experience</t>
+  </si>
+  <si>
+    <t>https://github.com/adyanshkakran/MLOps</t>
+  </si>
+  <si>
+    <t>very very wordy ADRs should be concise</t>
+  </si>
+  <si>
+    <t>very good coverage of the whole repo
+too many ADRs generated for a very small repo</t>
+  </si>
+  <si>
+    <t>slightly high level but otherwise covers almost everything</t>
+  </si>
+  <si>
+    <t>good comments about mlflow. still too many ADRs but awesome coverage</t>
+  </si>
+  <si>
+    <t>Akhila Matathammal</t>
+  </si>
+  <si>
+    <t>akhila.matathammal@research.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>https://github.com/sa4s-serc/EdgeMLBalancer</t>
+  </si>
+  <si>
+    <t>Divyansh Pandey</t>
+  </si>
+  <si>
+    <t>divyansh.pandey@students.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>https://github.com/divyanash911/RSS-Reader</t>
+  </si>
+  <si>
+    <t>Covers the major design decisions well.</t>
+  </si>
+  <si>
+    <t>A little unnecessary details here and there</t>
+  </si>
+  <si>
+    <t>Doesnt talk about pros and cons, misses some key decisions</t>
+  </si>
+  <si>
+    <t>Not sure about the ADR about google OAuth, also misses some key decisions</t>
+  </si>
+  <si>
+    <t>https://github.com/divyanash911/design-for-social-innovation-project</t>
+  </si>
+  <si>
+    <t>To the point, highlighted all high level ADRs.</t>
+  </si>
+  <si>
+    <t>Some ADRs are too finegrained and unnecessary</t>
+  </si>
+  <si>
+    <t>Does capture high level but in complicated/vague language, also misses out on pros/cons</t>
+  </si>
+  <si>
+    <t>Good but too many ADRs, for a SPA. Some ADRs contain decisions which are not of interest.</t>
+  </si>
+  <si>
+    <t>Dharmineni Sree Yashaswinee</t>
+  </si>
+  <si>
+    <t>sreeyashaswinee@gmail.com</t>
+  </si>
+  <si>
+    <t>https://github.com/yashaswinee/QuizAppMicroservices/tree/microservices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The inferred ADRs are concise and touch upon the important decisions that were taken up during building. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- These ADRs get much deeper into implementation level and versioning of tools and standards that were used. Which I feel are too fine grained and ADR generation could have been done on a higher level of abstraction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- I feel that the ADRs provided lacked justification for the consequences. For example, (ADR-005) PostgreSQL was used because the entire application had very structured entities and wasn't expected to be modified in the near future.  </t>
+  </si>
+  <si>
+    <t>- Fine-grained ADRs, such as ADR-007, which were statements of facts and could have been ignored.</t>
+  </si>
+  <si>
+    <t>The first directory (Dir 1) reflects only an initial attempt at documenting decisions and does not yet qualify as an ADR set. The entries resemble plain developer notes — they mention what was done but never articulate why it was done, what trade-offs existed, or which alternatives were rejected. There is no architectural framing, no context, and no linkage to the goals of EdgeMLBalancer. As a result, this set is not usable for architectural traceability or research documentation and would need to be entirely re-written.</t>
+  </si>
+  <si>
+    <t>The second directory (Dir 2) moves slightly closer to a structured ADR style but still remains largely at the application or implementation-level rather than architectural level. These records talk about Android design decisions and developer choices (UI, code structure, Kotlin justifications, etc.), yet do not connect the decisions back to the Edge–Cloud adaptation requirements, performance–energy trade-offs, or sustainability principles. The rationale is partial at best, and while the tone feels more like an ADR than in Dir 1, the material still lacks architectural reasoning. It does not yet reflect why these decisions matter for the system’s runtime adaptability or sustainability objective</t>
+  </si>
+  <si>
+    <t>The third directory (Dir 3) shows a noticeable maturity jump. The ADRs begin engaging with system-level reasoning, including modularity, monitoring, and elements of adaptation. There is a clearer architectural tone, and the structure of each record is more coherent. Trade-offs begin to appear, and the writing indicates that decisions are being made in response to architectural forces and constraints. However, sustainability still remains implicit rather than explicitly justified, and the ADRs still do not describe any rejected alternatives or decision evolution over time. This makes them strong drafts, but not yet research-grade.</t>
+  </si>
+  <si>
+    <t>The fourth directory (Dir 4) is the most complete and the only set that fully resembles a proper ADR collection. These decisions are aligned with the goals of the repository, grounded in architectural logic, and clearly structured. They connect design choices with the system’s broader objectives, and the consequences of decisions are articulated in a meaningful way. They still need slight strengthening in two areas: explicitly tying choices to sustainability (energy/carbon/resource impact) and clarifying architectural evolution (which ADR supersedes which, and how the architecture matured). But overall, this set is the closest to publishable or artifact-grade ADRs.</t>
+  </si>
+  <si>
+    <t>https://github.com/sa4s-serc/ecomls</t>
+  </si>
+  <si>
+    <t>The first directory again appears to be a very early-stage draft set of ADRs, containing mostly short statements of architectural intent without explaining the underlying reasoning. The records are superficial and resemble development notes rather than architecture decisions. They do not discuss trade-offs, do not present the problem context, and are not clearly tied to EcoMLS’s core sustainability or ML lifecycle goals. As with EdgeMLBalancer, this directory is not usable as ADR documentation in its current form.</t>
+  </si>
+  <si>
+    <t>The second directory is still mostly implementation-level thinking rather than architecture-level reasoning. It improves structurally compared to Dir 1, and the ADRs here are somewhat more organized, but they are still focused on components and mechanisms, not architectural justification. There is no reference to EcoMLS’s sustainability rationale, evaluation pipeline, model-serving strategy, or data/control architecture. The ADRs read like engineering/logbook entries, not like decisions being documented for future architectural traceability.</t>
+  </si>
+  <si>
+    <t>The third directory begins to reflect actual architectural reasoning. The entries connect more strongly to system-level design choices rather than implementation details. Decisions start referencing broader context such as model usability, modularity of lifecycle components, and maintainability. However, they still lack explicit sustainability-driven forces — even though EcoMLS’s entire positioning is around eco-efficient lifecycle selection and evaluation. Also missing are explicit rejected alternatives and the trade-off reasoning needed for publishable or artifact-grade ADRs.</t>
+  </si>
+  <si>
+    <t>The fourth directory is once again the most mature and most architecturally aligned. These ADRs finally reflect the real purpose and design of EcoMLS: why certain models are tracked, why lifecycle decisions must be dynamic, and why sustainability metrics matter. The structure is consistent, and the decisions feel architectural, not merely design-related. The only aspect still slightly underdeveloped is how sustainability trade-offs are narrated — the ADRs state that sustainability “matters” but do not quantify or justify it through architectural forces (e.g., lower training cost vs model accuracy vs reuse potential). With a minor enrichment of that reasoning, this directory can be considered complete and publication-ready.</t>
+  </si>
+  <si>
+    <t>https://github.com/sa4s-serc/switch</t>
+  </si>
+  <si>
+    <t>In the Switch repository, the first directory again contains ADRs that are too primitive to be treated as architectural decisions. They resemble raw design intent or brainstorming notes rather than structured decisions that capture reasoning or trade-offs. There is no explicit linkage to the switching mechanism, model-selection logic, runtime triggers, or the energy/performance objectives that define the repository’s purpose. These ADRs also lack the contextual framing necessary for architecture-level documentation, making them largely unusable in their current state.</t>
+  </si>
+  <si>
+    <t>The second directory shows an improvement in structure, but the writing still sits closer to “design description” rather than “architecture decision”. The decisions here tend to focus on how components are implemented, not why a particular architecture was chosen. They also omit references to the adaptive nature of the system, which is the core essence of Switch — the ADRs should justify why switching is necessary, what strategy was selected (rule-based vs learning-based), which trade-offs exist across models, and how system variability is handled. This layer is missing.</t>
+  </si>
+  <si>
+    <t>The third directory begins to reflect actual architectural thinking. These ADRs connect more clearly with the system’s intent — to enable controlled model/task switching based on predefined logic or runtime conditions. The architectural scope is more visible here, and modular boundaries are better justified. However, these ADRs still lack an explicit articulation of the forces behind decisions — such as correctness under switching, fallback reliability, or state consistency guarantees. What motivates each architectural constraint is still mostly implied rather than stated.</t>
+  </si>
+  <si>
+    <t>The fourth directory is the most mature and aligned with the repository’s purpose. These ADRs clearly reflect the switching model’s architecture, the separation of concerns, and the mechanisms that enable modular runtime behavior. They are coherent, traceable, and properly scoped at the architectural level. Minor improvements are still possible (such as explicitly framing the triggers, failure modes, and how correctness is preserved during switching), but overall they match the expected shape and depth for repository-aligned ADRs. This directory is suitable as the final base version.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/20a_akhila/amazon-clone</t>
+  </si>
+  <si>
+    <t>The first directory contains fragments of intent (“we are using React”, “we will use Firebase” etc.). These are not ADRs in any formal or usable sense. There is no architectural reasoning at all, no trade-off discussion, and no relationship to the system’s architectural layers (auth, checkout, catalog, persistence, payments, etc.). These entries feel like requirements or TODOs, not ADRs. Hence, the low score.</t>
+  </si>
+  <si>
+    <t>The second directory is slightly more structured, but still reads like implementation notes. Decisions such as “use Firestore” or “use styled-components” are simply stated without architectural forces (performance, developer velocity, consistency, deployment trade-offs, etc.). There is still no reference to architectural tiers (frontend, backend, service boundaries), nor to any e-commerce concerns such as session persistence, cart state, checkout integrity, stock consistency, or secure user flow. Still too shallow to be architecture, but better than Dir1.</t>
+  </si>
+  <si>
+    <t>The third directory finally introduces architecture-level structure. There is clear reasoning emerging: component boundary decisions, client-server interaction model, authentication architecture, and routing choices. These ADRs begin to reflect real software system design rather than development notes. However, they still do not cover cross-cutting concerns that matter for e-commerce software: security, user session durability, data integrity around cart/checkout, fail-safety, or scalability. These ADRs are good drafts, but still incomplete.</t>
+  </si>
+  <si>
+    <t>The fourth directory is the most well-formed. These ADRs are more aligned with the real architectural nature of an Amazon clone: modularity of UI components, handling authentication, routing structure, integration with backend services, and state management reasoning. They also begin to differentiate presentation vs business logic — which is critical in a production-scale clone. However, even here, two major gaps remain:
+1. E-commerce architectural forces (checkout integrity, idempotency, concurrency on carts, payment failure rollback) are missing.
+2. Backend/data architecture trade-offs (e.g., Firebase vs server-side DB) are not framed as decisions.
+The ADRs are “good front-end architecture decisions” but not yet full-system architecture decisions for a commerce platform.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/20a_akhila/movie-database</t>
+  </si>
+  <si>
+    <t>The ADRs in this directory are extremely shallow — closer to one-line “notes” such as “use React” or “we will fetch movies”. There is no reference to data architecture, no mention of API layer, caching, pagination strategy, or component boundaries. These are not architectural decisions and cannot be used for reasoning or traceability</t>
+  </si>
+  <si>
+    <t>The second set shows slight structure, but still sits at the implementation level, not architecture. Choices are recorded like a developer diary rather than justification. The ADRs do not talk about data flow, separation of concerns, API dependence, state management, or performance. There is still no mention of why a particular stack or layering approach was chosen. These ADRs are still incomplete for a movie-catalog style app.</t>
+  </si>
+  <si>
+    <t>Here the ADRs begin to reference application structure, such as rendering flow, component decomposition, and interaction with data providers. This is the first directory that begins to feel like architecture and not raw dev notes. However, it is missing the central architectural question of such a system:
+“How do we efficiently fetch, cache, and display large volumes of movie metadata?”
+Also missing: pagination vs infinite-scroll, memory handling, refresh strategy, stale data policy, error-handling on API failure.</t>
+  </si>
+  <si>
+    <t>This is the most aligned and closest to a usable ADR set. These ADRs begin to reflect modular UI architecture, service boundaries, and the reasoning around how data and view layers interact. They also show an emerging pattern of component reusability. However, there are still two important gaps: Caching/pagination strategy, Error / API fallback architecture. So Dir 4 is good, but still frontend-centric, not “system architecture” in the catalog/data-layer sense.</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/20a_akhila/silly_story_generator</t>
+  </si>
+  <si>
+    <t>These entries are extremely basic and read like “descriptive intent” rather than decisions. There is no architectural reasoning, but there also isn’t even a mapping to the core idea of the application — the generation pipeline: input → rules → randomization → output. So these aren’t ADRs yet.</t>
+  </si>
+  <si>
+    <t>This directory shows improvement in format and structure but remains implementation-note oriented, not architectural. Choices like “use JavaScript” or “keep UI simple” are stated but not tied to reasoning such as ease-of-user-input, deterministic vs random generation model, etc. Also missing is any mention of where story templates live and how variation is handled.</t>
+  </si>
+  <si>
+    <t>Here the ADRs finally start reflecting decisions about the logic flow of the app — e.g., template patterning, placeholders, modularity of text fragments. This is the correct architectural level for this project. However, it is still incomplete because it does not address: Extensibility (adding future templates), Data source structure, Variation rules (uniform random vs weighted), Whether input customisation is supported
+This makes Dir3 good but not final</t>
+  </si>
+  <si>
+    <t>This set is the most mature. It talks about separation of logic vs UI, the template patterning model, and modularization of story components. This finally resembles correct ADR content for a simple generator, not for a large-scale system. The only missing architectural insight is around future growth of story complexity — e.g., handling multiple languages, theming categories, or pluggable story logic. Otherwise, these ADRs are as “complete” as a small-scale architectural context reasonably needs.</t>
+  </si>
+  <si>
+    <t>Vyakhya</t>
+  </si>
+  <si>
+    <t>vyakhya.gupta@students.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>https://github.com/OSDG-IIITH/CabMiloge</t>
+  </si>
+  <si>
+    <t>They don't cover some of the what I would consider the more important aspects of the repo. Otherwise, simple to read and understand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very concise and focus on apparently subtle but important parts of the repo. Might have been better to have pros and cons listed out separately. One or two of the ADRs might even be a little too granular </t>
+  </si>
+  <si>
+    <t>Very structured and clear, but are slightly more broader in scope</t>
+  </si>
+  <si>
+    <t>A little more granular and slightly less relevance compared to other ADRs. Structure and language are pretty clear and understandable though</t>
+  </si>
+  <si>
+    <t>Shailender Goyal</t>
+  </si>
+  <si>
+    <t>shailender.goyal@research.iiit.ac.in</t>
+  </si>
+  <si>
+    <t>https://github.com/ShailenderGoyal/Enigmatrix_Salesforce_Hackathon</t>
+  </si>
+  <si>
+    <t>The ADRs have identified the important decisions in the project with right granularity but the content on the ADR can have better reasoning for the decision taken.</t>
+  </si>
+  <si>
+    <t>Some ADRs are irrelevant and unnecessary which could be skipped. The detail in the ADR itself is missing.</t>
+  </si>
+  <si>
+    <t>The content in the ADRs is better and the mostly the right ADRs captured.</t>
+  </si>
+  <si>
+    <t>A lot more decisions are captured but the content in each ADR is a lacking. Some content isn't completely accurate.</t>
+  </si>
+  <si>
+    <t>https://github.com/ShailenderGoyal/PageRank-Algorithm</t>
+  </si>
+  <si>
+    <t>The ADRs are fine but there are some unnecessary ones.</t>
+  </si>
+  <si>
+    <t>These ADRs are good. They could maybe go deeper in the architecture of the system.</t>
+  </si>
+  <si>
+    <t>I think for this project, this could be a really great set of ADRs.</t>
+  </si>
+  <si>
+    <t>The content in the ADRs isn't that good. The ADRs are a bit superfluous.</t>
+  </si>
+  <si>
+    <t>https://github.com/adyanshkakran/Reddit-clone</t>
+  </si>
+  <si>
+    <t>very very wordy
+good coverage of whole repository</t>
+  </si>
+  <si>
+    <t>very good quality ADRs
+lots of ADRs is the issue</t>
+  </si>
+  <si>
+    <t>precise but lack coverage</t>
+  </si>
+  <si>
+    <t>good coverage and nice relevant ADRs</t>
+  </si>
+  <si>
+    <t>https://github.com/adyanshkakran/RL_project</t>
+  </si>
+  <si>
+    <t>very very wordy and long ADRs</t>
+  </si>
+  <si>
+    <t>a lot of ADRs, but very good explanation of decisions</t>
+  </si>
+  <si>
+    <t>nice type of ADRs used to explain the decision</t>
+  </si>
+  <si>
+    <t>very good distribution of ADRs, but again a lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adyansh Kakran</t>
+  </si>
+  <si>
+    <t>https://github.com/adyanshkakran/Shravana</t>
+  </si>
+  <si>
+    <t>very wordy</t>
+  </si>
+  <si>
+    <t>too many ADRs</t>
+  </si>
+  <si>
+    <t>short concise good</t>
+  </si>
+  <si>
+    <t>very well written but still a lot</t>
+  </si>
+  <si>
     <t>Is it your repository?</t>
   </si>
   <si>
@@ -352,18 +669,6 @@
     <t>https://github.com/karthikv1392/LoCodeML_BTP/tree/inference_improvements</t>
   </si>
   <si>
-    <t>Akhila Matathammal</t>
-  </si>
-  <si>
-    <t>akhila.matathammal@research.iiit.ac.in</t>
-  </si>
-  <si>
-    <t>https://github.com/sa4s-serc/EdgeMLBalancer</t>
-  </si>
-  <si>
-    <t>https://github.com/sa4s-serc/switch</t>
-  </si>
-  <si>
     <t>https://github.com/sa4s-serc/EcoMLS</t>
   </si>
   <si>
@@ -373,75 +678,24 @@
     <t>https://github.com/akhiha/juice-shop</t>
   </si>
   <si>
-    <t>https://gitlab.com/20a_akhila/amazon-clone</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/20a_akhila/movie-database</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/20a_akhila/silly_story_generator</t>
-  </si>
-  <si>
     <t>sreemaee2121@gmail.com</t>
   </si>
   <si>
     <t>https://github.com/montycloud/moya</t>
   </si>
   <si>
-    <t>Divyansh Pandey</t>
-  </si>
-  <si>
-    <t>divyansh.pandey@students.iiit.ac.in</t>
-  </si>
-  <si>
-    <t>https://github.com/divyanash911/RSS-Reader</t>
-  </si>
-  <si>
-    <t>https://github.com/divyanash911/design-for-social-innovation-project</t>
-  </si>
-  <si>
-    <t>Vyakhya</t>
-  </si>
-  <si>
-    <t>vyakhya.gupta@students.iiit.ac.in</t>
-  </si>
-  <si>
-    <t>https://github.com/OSDG-IIITH/CabMiloge</t>
-  </si>
-  <si>
     <t>https://github.com/sudokara/bracket</t>
   </si>
   <si>
     <t>https://github.com/microsoft/sarathi-serve</t>
   </si>
   <si>
-    <t>Adyansh Kakran</t>
-  </si>
-  <si>
-    <t>adyansh.kakran@research.iiit.ac.in</t>
-  </si>
-  <si>
     <t>https://github.com/Poorvi-HC/DIP-Project</t>
   </si>
   <si>
-    <t>https://github.com/adyanshkakran/RL_project</t>
-  </si>
-  <si>
-    <t>https://github.com/adyanshkakran/Shravana</t>
-  </si>
-  <si>
     <t>https://github.com/sudokara/SE_Project_3</t>
   </si>
   <si>
-    <t>https://github.com/adyanshkakran/MLOps</t>
-  </si>
-  <si>
-    <t>https://github.com/adyanshkakran/Reddit-clone</t>
-  </si>
-  <si>
-    <t>https://github.com/adyanshkakran/need-for-speed</t>
-  </si>
-  <si>
     <t>Muhammed Basil</t>
   </si>
   <si>
@@ -466,28 +720,7 @@
     <t>shubhamkstar@gmail.com</t>
   </si>
   <si>
-    <t>Dharmineni Sree Yashaswinee</t>
-  </si>
-  <si>
-    <t>sreeyashaswinee@gmail.com</t>
-  </si>
-  <si>
-    <t>https://github.com/yashaswinee/QuizAppMicroservices/tree/microservices</t>
-  </si>
-  <si>
-    <t>Shailender Goyal</t>
-  </si>
-  <si>
-    <t>shailender.goyal@research.iiit.ac.in</t>
-  </si>
-  <si>
-    <t>https://github.com/ShailenderGoyal/Enigmatrix_Salesforce_Hackathon</t>
-  </si>
-  <si>
     <t>https://github.com/someyuck/Project-Kuch-Bhi</t>
-  </si>
-  <si>
-    <t>https://github.com/ShailenderGoyal/PageRank-Algorithm</t>
   </si>
   <si>
     <t>Bassam Adnan</t>
@@ -499,44 +732,50 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
@@ -546,11 +785,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -564,6 +809,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -578,6 +824,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -592,6 +839,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -606,6 +854,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -620,6 +869,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -634,6 +884,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -648,6 +899,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -662,6 +914,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -676,6 +929,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -690,6 +944,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -704,6 +959,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -718,186 +974,178 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
+          <fgColor rgb="FF5B3F86"/>
+          <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle count="4" pivot="0" name="Form Responses 2-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement size="0" type="wholeTable"/>
+    <tableStyle name="Form Responses 2-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" size="0"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle count="4" pivot="0" name="Form Responses 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement size="0" type="wholeTable"/>
+    <tableStyle name="Form Responses 1-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="wholeTable" size="0"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:AC12" displayName="Form_Responses2" name="Form_Responses2" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses2" displayName="Form_Responses2" ref="A1:AC29" headerRowCount="0">
   <tableColumns count="29">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
-    <tableColumn name="Column7" id="7"/>
-    <tableColumn name="Column8" id="8"/>
-    <tableColumn name="Column9" id="9"/>
-    <tableColumn name="Column10" id="10"/>
-    <tableColumn name="Column11" id="11"/>
-    <tableColumn name="Column12" id="12"/>
-    <tableColumn name="Column13" id="13"/>
-    <tableColumn name="Column14" id="14"/>
-    <tableColumn name="Column15" id="15"/>
-    <tableColumn name="Column16" id="16"/>
-    <tableColumn name="Column17" id="17"/>
-    <tableColumn name="Column18" id="18"/>
-    <tableColumn name="Column19" id="19"/>
-    <tableColumn name="Column20" id="20"/>
-    <tableColumn name="Column21" id="21"/>
-    <tableColumn name="Column22" id="22"/>
-    <tableColumn name="Column23" id="23"/>
-    <tableColumn name="Column24" id="24"/>
-    <tableColumn name="Column25" id="25"/>
-    <tableColumn name="Column26" id="26"/>
-    <tableColumn name="Column27" id="27"/>
-    <tableColumn name="Column28" id="28"/>
-    <tableColumn name="Column29" id="29"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Column16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Column17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Column18"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Column19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Column20"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Column21"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Column22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Column23"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Column24"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Column25"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Column26"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Column27"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Column28"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Column29"/>
   </tableColumns>
-  <tableStyleInfo name="Form Responses 2-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Form Responses 2-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -907,20 +1155,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E46" displayName="Form_Responses" name="Form_Responses" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Form_Responses" displayName="Form_Responses" ref="A1:E46">
   <tableColumns count="5">
-    <tableColumn name="Timestamp" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Mail id" id="3"/>
-    <tableColumn name="Repository URL" id="4"/>
-    <tableColumn name="Is it your repository?" id="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Timestamp"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Mail id"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Repository URL"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Is it your repository?"/>
   </tableColumns>
-  <tableStyleInfo name="Form Responses 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Form Responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1110,52 +1358,56 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="18.88"/>
-    <col customWidth="1" min="5" max="5" width="36.5"/>
-    <col customWidth="1" min="6" max="6" width="32.63"/>
-    <col customWidth="1" min="7" max="7" width="33.38"/>
-    <col customWidth="1" min="8" max="8" width="34.75"/>
-    <col customWidth="1" min="9" max="9" width="37.63"/>
-    <col customWidth="1" min="10" max="10" width="18.88"/>
-    <col customWidth="1" min="11" max="11" width="29.25"/>
-    <col customWidth="1" min="12" max="12" width="32.63"/>
-    <col customWidth="1" min="13" max="13" width="33.38"/>
-    <col customWidth="1" min="14" max="14" width="34.75"/>
-    <col customWidth="1" min="15" max="15" width="37.63"/>
-    <col customWidth="1" min="16" max="16" width="18.88"/>
-    <col customWidth="1" min="17" max="17" width="29.25"/>
-    <col customWidth="1" min="18" max="18" width="32.63"/>
-    <col customWidth="1" min="19" max="19" width="33.38"/>
-    <col customWidth="1" min="20" max="20" width="34.75"/>
-    <col customWidth="1" min="21" max="21" width="37.63"/>
-    <col customWidth="1" min="22" max="22" width="18.88"/>
-    <col customWidth="1" min="23" max="23" width="29.25"/>
-    <col customWidth="1" min="24" max="24" width="32.63"/>
-    <col customWidth="1" min="25" max="25" width="33.38"/>
-    <col customWidth="1" min="26" max="26" width="34.75"/>
-    <col customWidth="1" min="27" max="27" width="37.63"/>
-    <col customWidth="1" min="28" max="28" width="18.88"/>
-    <col customWidth="1" min="29" max="29" width="29.25"/>
-    <col customWidth="1" min="30" max="35" width="18.88"/>
+    <col min="1" max="3" width="18.90625" customWidth="1"/>
+    <col min="4" max="4" width="63.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.453125" customWidth="1"/>
+    <col min="6" max="6" width="32.6328125" customWidth="1"/>
+    <col min="7" max="7" width="33.36328125" customWidth="1"/>
+    <col min="8" max="8" width="34.7265625" customWidth="1"/>
+    <col min="9" max="9" width="37.6328125" customWidth="1"/>
+    <col min="10" max="10" width="18.90625" customWidth="1"/>
+    <col min="11" max="11" width="29.26953125" customWidth="1"/>
+    <col min="12" max="12" width="32.6328125" customWidth="1"/>
+    <col min="13" max="13" width="33.36328125" customWidth="1"/>
+    <col min="14" max="14" width="34.7265625" customWidth="1"/>
+    <col min="15" max="15" width="37.6328125" customWidth="1"/>
+    <col min="16" max="16" width="18.90625" customWidth="1"/>
+    <col min="17" max="17" width="29.26953125" customWidth="1"/>
+    <col min="18" max="18" width="32.6328125" customWidth="1"/>
+    <col min="19" max="19" width="33.36328125" customWidth="1"/>
+    <col min="20" max="20" width="34.7265625" customWidth="1"/>
+    <col min="21" max="21" width="37.6328125" customWidth="1"/>
+    <col min="22" max="22" width="18.90625" customWidth="1"/>
+    <col min="23" max="23" width="29.26953125" customWidth="1"/>
+    <col min="24" max="24" width="32.6328125" customWidth="1"/>
+    <col min="25" max="25" width="33.36328125" customWidth="1"/>
+    <col min="26" max="26" width="34.7265625" customWidth="1"/>
+    <col min="27" max="27" width="37.6328125" customWidth="1"/>
+    <col min="28" max="28" width="18.90625" customWidth="1"/>
+    <col min="29" max="29" width="29.26953125" customWidth="1"/>
+    <col min="30" max="35" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1244,9 +1496,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>45940.91725953703</v>
+        <v>45940.917259537033</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
@@ -1258,84 +1510,84 @@
         <v>13</v>
       </c>
       <c r="E2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G2" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N2" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O2" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P2" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="R2" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S2" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T2" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U2" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V2" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="X2" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z2" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA2" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB2" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>45943.47146395833</v>
+        <v>45943.471463958333</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>18</v>
@@ -1347,173 +1599,173 @@
         <v>20</v>
       </c>
       <c r="E3" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M3" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N3" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O3" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P3" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="R3" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S3" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T3" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U3" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="V3" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W3" s="9" t="s">
         <v>23</v>
       </c>
       <c r="X3" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Y3" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z3" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA3" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB3" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AC3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="12">
-        <v>45944.69330466435</v>
-      </c>
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45944.693304664353</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="M4" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="N4" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="O4" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="P4" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="Q4" s="13" t="s">
+      <c r="L4" s="5">
+        <v>5</v>
+      </c>
+      <c r="M4" s="5">
+        <v>4</v>
+      </c>
+      <c r="N4" s="5">
+        <v>5</v>
+      </c>
+      <c r="O4" s="5">
+        <v>5</v>
+      </c>
+      <c r="P4" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="S4" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="T4" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="U4" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="V4" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="W4" s="13" t="s">
+      <c r="R4" s="5">
+        <v>5</v>
+      </c>
+      <c r="S4" s="5">
+        <v>3</v>
+      </c>
+      <c r="T4" s="5">
+        <v>5</v>
+      </c>
+      <c r="U4" s="5">
+        <v>3</v>
+      </c>
+      <c r="V4" s="5">
+        <v>3</v>
+      </c>
+      <c r="W4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="Y4" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="Z4" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="AC4" s="15" t="s">
+      <c r="X4" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>45944.81513122685</v>
+        <v>45944.815131226853</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>32</v>
@@ -1525,173 +1777,173 @@
         <v>34</v>
       </c>
       <c r="E5" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M5" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N5" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O5" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P5" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="R5" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S5" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T5" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U5" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="V5" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>37</v>
       </c>
       <c r="X5" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z5" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA5" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AB5" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AC5" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="12">
-        <v>45944.97269001158</v>
-      </c>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45944.972690011578</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="J6" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="K6" s="13" t="s">
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="M6" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="N6" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="O6" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="P6" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="Q6" s="13" t="s">
+      <c r="L6" s="5">
+        <v>4</v>
+      </c>
+      <c r="M6" s="5">
+        <v>4</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3</v>
+      </c>
+      <c r="O6" s="5">
+        <v>3</v>
+      </c>
+      <c r="P6" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="S6" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="T6" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="U6" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="V6" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="W6" s="13" t="s">
+      <c r="R6" s="5">
+        <v>4</v>
+      </c>
+      <c r="S6" s="5">
+        <v>3</v>
+      </c>
+      <c r="T6" s="5">
+        <v>5</v>
+      </c>
+      <c r="U6" s="5">
+        <v>4</v>
+      </c>
+      <c r="V6" s="5">
+        <v>4</v>
+      </c>
+      <c r="W6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="X6" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="Y6" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="Z6" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="AA6" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="AB6" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="AC6" s="15" t="s">
+      <c r="X6" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
-        <v>45945.07269579861</v>
+        <v>45945.072695798612</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>46</v>
@@ -1703,171 +1955,171 @@
         <v>48</v>
       </c>
       <c r="E7" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J7" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>49</v>
       </c>
       <c r="L7" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M7" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O7" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P7" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>50</v>
       </c>
       <c r="R7" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S7" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T7" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U7" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V7" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>51</v>
       </c>
       <c r="X7" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y7" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z7" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AC7" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="12">
-        <v>45945.07844920139</v>
-      </c>
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45945.078449201392</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="H8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="J8" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="K8" s="13" t="s">
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4</v>
+      </c>
+      <c r="J8" s="5">
+        <v>3</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="N8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="O8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="P8" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="Q8" s="13" t="s">
+      <c r="L8" s="5">
+        <v>4</v>
+      </c>
+      <c r="M8" s="5">
+        <v>4</v>
+      </c>
+      <c r="N8" s="5">
+        <v>4</v>
+      </c>
+      <c r="O8" s="5">
+        <v>4</v>
+      </c>
+      <c r="P8" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="S8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="T8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="U8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="V8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="W8" s="13" t="s">
+      <c r="R8" s="5">
+        <v>4</v>
+      </c>
+      <c r="S8" s="5">
+        <v>4</v>
+      </c>
+      <c r="T8" s="5">
+        <v>4</v>
+      </c>
+      <c r="U8" s="5">
+        <v>4</v>
+      </c>
+      <c r="V8" s="5">
+        <v>4</v>
+      </c>
+      <c r="W8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="Y8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="Z8" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="AA8" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="AB8" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="AC8" s="15" t="s">
+      <c r="X8" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>45945.808531539355</v>
       </c>
@@ -1881,173 +2133,173 @@
         <v>60</v>
       </c>
       <c r="E9" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H9" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>61</v>
       </c>
       <c r="L9" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M9" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O9" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P9" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>62</v>
       </c>
       <c r="R9" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S9" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T9" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U9" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="V9" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W9" s="9" t="s">
         <v>63</v>
       </c>
       <c r="X9" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Z9" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AB9" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="12">
-        <v>45946.65276008102</v>
-      </c>
-      <c r="B10" s="13" t="s">
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45946.652760081022</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="H10" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="I10" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="J10" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="K10" s="13" t="s">
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="M10" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="N10" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="O10" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="P10" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="Q10" s="13" t="s">
+      <c r="L10" s="5">
+        <v>4</v>
+      </c>
+      <c r="M10" s="5">
+        <v>4</v>
+      </c>
+      <c r="N10" s="5">
+        <v>4</v>
+      </c>
+      <c r="O10" s="5">
+        <v>4</v>
+      </c>
+      <c r="P10" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="S10" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="T10" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="U10" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="V10" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="W10" s="13" t="s">
+      <c r="R10" s="5">
+        <v>4</v>
+      </c>
+      <c r="S10" s="5">
+        <v>3</v>
+      </c>
+      <c r="T10" s="5">
+        <v>3</v>
+      </c>
+      <c r="U10" s="5">
+        <v>3</v>
+      </c>
+      <c r="V10" s="5">
+        <v>4</v>
+      </c>
+      <c r="W10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="X10" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="Y10" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="Z10" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="AA10" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="AB10" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="AC10" s="15" t="s">
+      <c r="X10" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>45946.97044625</v>
+        <v>45946.970446250001</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>72</v>
@@ -2059,212 +2311,1743 @@
         <v>74</v>
       </c>
       <c r="E11" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>75</v>
       </c>
       <c r="L11" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M11" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N11" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O11" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P11" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>76</v>
       </c>
       <c r="R11" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S11" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T11" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="U11" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="V11" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="W11" s="9" t="s">
         <v>77</v>
       </c>
       <c r="X11" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y11" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z11" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA11" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB11" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AC11" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="16">
-        <v>45947.74719896991</v>
-      </c>
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45947.747198969912</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="G12" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="H12" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="I12" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="J12" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="K12" s="17" t="s">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3</v>
+      </c>
+      <c r="J12" s="5">
+        <v>4</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="M12" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="N12" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="O12" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="P12" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="Q12" s="17" t="s">
+      <c r="L12" s="5">
+        <v>3</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3</v>
+      </c>
+      <c r="N12" s="5">
+        <v>2</v>
+      </c>
+      <c r="O12" s="5">
+        <v>4</v>
+      </c>
+      <c r="P12" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="S12" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="T12" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="U12" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="V12" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="W12" s="17" t="s">
+      <c r="R12" s="5">
+        <v>4</v>
+      </c>
+      <c r="S12" s="5">
+        <v>5</v>
+      </c>
+      <c r="T12" s="5">
+        <v>4</v>
+      </c>
+      <c r="U12" s="5">
+        <v>5</v>
+      </c>
+      <c r="V12" s="5">
+        <v>4</v>
+      </c>
+      <c r="W12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="X12" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="Y12" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="Z12" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="AA12" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="AB12" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="AC12" s="19" t="s">
+      <c r="X12" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="7" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>45948.712728888888</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9">
+        <v>4</v>
+      </c>
+      <c r="H13" s="9">
+        <v>3</v>
+      </c>
+      <c r="I13" s="9">
+        <v>3</v>
+      </c>
+      <c r="J13" s="9">
+        <v>4</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="9">
+        <v>5</v>
+      </c>
+      <c r="M13" s="9">
+        <v>5</v>
+      </c>
+      <c r="N13" s="9">
+        <v>4</v>
+      </c>
+      <c r="O13" s="9">
+        <v>4</v>
+      </c>
+      <c r="P13" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R13" s="9">
+        <v>4</v>
+      </c>
+      <c r="S13" s="9">
+        <v>4</v>
+      </c>
+      <c r="T13" s="9">
+        <v>3</v>
+      </c>
+      <c r="U13" s="9">
+        <v>4</v>
+      </c>
+      <c r="V13" s="9">
+        <v>3</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X13" s="9">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45948.720108831018</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2</v>
+      </c>
+      <c r="J14" s="5">
+        <v>4</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="5">
+        <v>4</v>
+      </c>
+      <c r="M14" s="5">
+        <v>5</v>
+      </c>
+      <c r="N14" s="5">
+        <v>5</v>
+      </c>
+      <c r="O14" s="5">
+        <v>4</v>
+      </c>
+      <c r="P14" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R14" s="5">
+        <v>5</v>
+      </c>
+      <c r="S14" s="5">
+        <v>5</v>
+      </c>
+      <c r="T14" s="5">
+        <v>4</v>
+      </c>
+      <c r="U14" s="5">
+        <v>4</v>
+      </c>
+      <c r="V14" s="5">
+        <v>4</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="X14" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45948.754101782411</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>4</v>
+      </c>
+      <c r="G15" s="5">
+        <v>4</v>
+      </c>
+      <c r="H15" s="5">
+        <v>4</v>
+      </c>
+      <c r="I15" s="5">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5">
+        <v>4</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="5">
+        <v>3</v>
+      </c>
+      <c r="M15" s="5">
+        <v>4</v>
+      </c>
+      <c r="N15" s="5">
+        <v>4</v>
+      </c>
+      <c r="O15" s="5">
+        <v>3</v>
+      </c>
+      <c r="P15" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="R15" s="5">
+        <v>4</v>
+      </c>
+      <c r="S15" s="5">
+        <v>4</v>
+      </c>
+      <c r="T15" s="5">
+        <v>3</v>
+      </c>
+      <c r="U15" s="5">
+        <v>3</v>
+      </c>
+      <c r="V15" s="5">
+        <v>3</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="X15" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>45948.757397557871</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9">
+        <v>4</v>
+      </c>
+      <c r="H16" s="9">
+        <v>4</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5</v>
+      </c>
+      <c r="J16" s="9">
+        <v>4</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="9">
+        <v>4</v>
+      </c>
+      <c r="M16" s="9">
+        <v>4</v>
+      </c>
+      <c r="N16" s="9">
+        <v>4</v>
+      </c>
+      <c r="O16" s="9">
+        <v>3</v>
+      </c>
+      <c r="P16" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="R16" s="9">
+        <v>4</v>
+      </c>
+      <c r="S16" s="9">
+        <v>3</v>
+      </c>
+      <c r="T16" s="9">
+        <v>3</v>
+      </c>
+      <c r="U16" s="9">
+        <v>4</v>
+      </c>
+      <c r="V16" s="9">
+        <v>3</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X16" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45948.806593032408</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5">
+        <v>5</v>
+      </c>
+      <c r="I17" s="5">
+        <v>5</v>
+      </c>
+      <c r="J17" s="5">
+        <v>5</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" s="5">
+        <v>5</v>
+      </c>
+      <c r="M17" s="5">
+        <v>4</v>
+      </c>
+      <c r="N17" s="5">
+        <v>4</v>
+      </c>
+      <c r="O17" s="5">
+        <v>4</v>
+      </c>
+      <c r="P17" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R17" s="5">
+        <v>5</v>
+      </c>
+      <c r="S17" s="5">
+        <v>5</v>
+      </c>
+      <c r="T17" s="5">
+        <v>4</v>
+      </c>
+      <c r="U17" s="5">
+        <v>4</v>
+      </c>
+      <c r="V17" s="5">
+        <v>4</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="X17" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>45948.818863599532</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="9">
+        <v>6</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9">
+        <v>3</v>
+      </c>
+      <c r="J18" s="9">
+        <v>2</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="9">
+        <v>3</v>
+      </c>
+      <c r="M18" s="9">
+        <v>3</v>
+      </c>
+      <c r="N18" s="9">
+        <v>3</v>
+      </c>
+      <c r="O18" s="9">
+        <v>3</v>
+      </c>
+      <c r="P18" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="R18" s="9">
+        <v>4</v>
+      </c>
+      <c r="S18" s="9">
+        <v>4</v>
+      </c>
+      <c r="T18" s="9">
+        <v>4</v>
+      </c>
+      <c r="U18" s="9">
+        <v>4</v>
+      </c>
+      <c r="V18" s="9">
+        <v>4</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="X18" s="9">
+        <v>5</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>5</v>
+      </c>
+      <c r="AB18" s="9">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45948.823594560185</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="5">
+        <v>6</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>3</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="5">
+        <v>3</v>
+      </c>
+      <c r="M19" s="5">
+        <v>3</v>
+      </c>
+      <c r="N19" s="5">
+        <v>3</v>
+      </c>
+      <c r="O19" s="5">
+        <v>3</v>
+      </c>
+      <c r="P19" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="R19" s="5">
+        <v>4</v>
+      </c>
+      <c r="S19" s="5">
+        <v>4</v>
+      </c>
+      <c r="T19" s="5">
+        <v>4</v>
+      </c>
+      <c r="U19" s="5">
+        <v>3</v>
+      </c>
+      <c r="V19" s="5">
+        <v>4</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="X19" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>45948.830574861116</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="9">
+        <v>6</v>
+      </c>
+      <c r="F20" s="9">
+        <v>2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>2</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9">
+        <v>3</v>
+      </c>
+      <c r="J20" s="9">
+        <v>2</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="9">
+        <v>3</v>
+      </c>
+      <c r="M20" s="9">
+        <v>3</v>
+      </c>
+      <c r="N20" s="9">
+        <v>3</v>
+      </c>
+      <c r="O20" s="9">
+        <v>3</v>
+      </c>
+      <c r="P20" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="R20" s="9">
+        <v>4</v>
+      </c>
+      <c r="S20" s="9">
+        <v>4</v>
+      </c>
+      <c r="T20" s="9">
+        <v>4</v>
+      </c>
+      <c r="U20" s="9">
+        <v>4</v>
+      </c>
+      <c r="V20" s="9">
+        <v>4</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X20" s="9">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="9">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="9">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45948.834498391203</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="5">
+        <v>6</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>3</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" s="5">
+        <v>2</v>
+      </c>
+      <c r="M21" s="5">
+        <v>3</v>
+      </c>
+      <c r="N21" s="5">
+        <v>2</v>
+      </c>
+      <c r="O21" s="5">
+        <v>3</v>
+      </c>
+      <c r="P21" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="R21" s="5">
+        <v>4</v>
+      </c>
+      <c r="S21" s="5">
+        <v>4</v>
+      </c>
+      <c r="T21" s="5">
+        <v>3</v>
+      </c>
+      <c r="U21" s="5">
+        <v>4</v>
+      </c>
+      <c r="V21" s="5">
+        <v>4</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="X21" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>45948.837545925926</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="9">
+        <v>6</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1</v>
+      </c>
+      <c r="I22" s="9">
+        <v>3</v>
+      </c>
+      <c r="J22" s="9">
+        <v>2</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="9">
+        <v>2</v>
+      </c>
+      <c r="M22" s="9">
+        <v>3</v>
+      </c>
+      <c r="N22" s="9">
+        <v>2</v>
+      </c>
+      <c r="O22" s="9">
+        <v>4</v>
+      </c>
+      <c r="P22" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="R22" s="9">
+        <v>3</v>
+      </c>
+      <c r="S22" s="9">
+        <v>4</v>
+      </c>
+      <c r="T22" s="9">
+        <v>3</v>
+      </c>
+      <c r="U22" s="9">
+        <v>4</v>
+      </c>
+      <c r="V22" s="9">
+        <v>3</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="X22" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45948.840559872682</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="5">
+        <v>6</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <v>4</v>
+      </c>
+      <c r="J23" s="5">
+        <v>2</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="5">
+        <v>2</v>
+      </c>
+      <c r="M23" s="5">
+        <v>3</v>
+      </c>
+      <c r="N23" s="5">
+        <v>2</v>
+      </c>
+      <c r="O23" s="5">
+        <v>4</v>
+      </c>
+      <c r="P23" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="R23" s="5">
+        <v>3</v>
+      </c>
+      <c r="S23" s="5">
+        <v>4</v>
+      </c>
+      <c r="T23" s="5">
+        <v>3</v>
+      </c>
+      <c r="U23" s="5">
+        <v>4</v>
+      </c>
+      <c r="V23" s="5">
+        <v>3</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="X23" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>4</v>
+      </c>
+      <c r="AC23" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>45948.982964849536</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>4</v>
+      </c>
+      <c r="G24" s="9">
+        <v>4</v>
+      </c>
+      <c r="H24" s="9">
+        <v>3</v>
+      </c>
+      <c r="I24" s="9">
+        <v>5</v>
+      </c>
+      <c r="J24" s="9">
+        <v>3</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L24" s="9">
+        <v>5</v>
+      </c>
+      <c r="M24" s="9">
+        <v>3</v>
+      </c>
+      <c r="N24" s="9">
+        <v>5</v>
+      </c>
+      <c r="O24" s="9">
+        <v>4</v>
+      </c>
+      <c r="P24" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="R24" s="9">
+        <v>5</v>
+      </c>
+      <c r="S24" s="9">
+        <v>5</v>
+      </c>
+      <c r="T24" s="9">
+        <v>4</v>
+      </c>
+      <c r="U24" s="9">
+        <v>5</v>
+      </c>
+      <c r="V24" s="9">
+        <v>5</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="X24" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC24" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45949.048631076388</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>4</v>
+      </c>
+      <c r="G25" s="5">
+        <v>3</v>
+      </c>
+      <c r="H25" s="5">
+        <v>4</v>
+      </c>
+      <c r="I25" s="5">
+        <v>4</v>
+      </c>
+      <c r="J25" s="5">
+        <v>3</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L25" s="5">
+        <v>3</v>
+      </c>
+      <c r="M25" s="5">
+        <v>3</v>
+      </c>
+      <c r="N25" s="5">
+        <v>3</v>
+      </c>
+      <c r="O25" s="5">
+        <v>2</v>
+      </c>
+      <c r="P25" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="R25" s="5">
+        <v>4</v>
+      </c>
+      <c r="S25" s="5">
+        <v>3</v>
+      </c>
+      <c r="T25" s="5">
+        <v>3</v>
+      </c>
+      <c r="U25" s="5">
+        <v>4</v>
+      </c>
+      <c r="V25" s="5">
+        <v>4</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="X25" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>4</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>4</v>
+      </c>
+      <c r="AC25" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>45949.058891574074</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>3</v>
+      </c>
+      <c r="G26" s="9">
+        <v>4</v>
+      </c>
+      <c r="H26" s="9">
+        <v>3</v>
+      </c>
+      <c r="I26" s="9">
+        <v>4</v>
+      </c>
+      <c r="J26" s="9">
+        <v>3</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L26" s="9">
+        <v>4</v>
+      </c>
+      <c r="M26" s="9">
+        <v>4</v>
+      </c>
+      <c r="N26" s="9">
+        <v>4</v>
+      </c>
+      <c r="O26" s="9">
+        <v>4</v>
+      </c>
+      <c r="P26" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="R26" s="9">
+        <v>5</v>
+      </c>
+      <c r="S26" s="9">
+        <v>5</v>
+      </c>
+      <c r="T26" s="9">
+        <v>5</v>
+      </c>
+      <c r="U26" s="9">
+        <v>4</v>
+      </c>
+      <c r="V26" s="9">
+        <v>5</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="X26" s="9">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>4</v>
+      </c>
+      <c r="AB26" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45949.21281109954</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="5">
+        <v>5</v>
+      </c>
+      <c r="G27" s="5">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5">
+        <v>4</v>
+      </c>
+      <c r="I27" s="5">
+        <v>2</v>
+      </c>
+      <c r="J27" s="5">
+        <v>4</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L27" s="5">
+        <v>5</v>
+      </c>
+      <c r="M27" s="5">
+        <v>4</v>
+      </c>
+      <c r="N27" s="5">
+        <v>5</v>
+      </c>
+      <c r="O27" s="5">
+        <v>3</v>
+      </c>
+      <c r="P27" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="R27" s="5">
+        <v>4</v>
+      </c>
+      <c r="S27" s="5">
+        <v>4</v>
+      </c>
+      <c r="T27" s="5">
+        <v>3</v>
+      </c>
+      <c r="U27" s="5">
+        <v>4</v>
+      </c>
+      <c r="V27" s="5">
+        <v>4</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="X27" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>5</v>
+      </c>
+      <c r="AC27" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>45949.21987050926</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="9">
+        <v>5</v>
+      </c>
+      <c r="G28" s="9">
+        <v>4</v>
+      </c>
+      <c r="H28" s="9">
+        <v>3</v>
+      </c>
+      <c r="I28" s="9">
+        <v>2</v>
+      </c>
+      <c r="J28" s="9">
+        <v>3</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="L28" s="9">
+        <v>4</v>
+      </c>
+      <c r="M28" s="9">
+        <v>5</v>
+      </c>
+      <c r="N28" s="9">
+        <v>5</v>
+      </c>
+      <c r="O28" s="9">
+        <v>3</v>
+      </c>
+      <c r="P28" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="R28" s="9">
+        <v>5</v>
+      </c>
+      <c r="S28" s="9">
+        <v>4</v>
+      </c>
+      <c r="T28" s="9">
+        <v>4</v>
+      </c>
+      <c r="U28" s="9">
+        <v>4</v>
+      </c>
+      <c r="V28" s="9">
+        <v>4</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="X28" s="9">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>4</v>
+      </c>
+      <c r="AB28" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>45949.225725821758</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="14">
+        <v>4</v>
+      </c>
+      <c r="G29" s="14">
+        <v>5</v>
+      </c>
+      <c r="H29" s="14">
+        <v>4</v>
+      </c>
+      <c r="I29" s="14">
+        <v>2</v>
+      </c>
+      <c r="J29" s="14">
+        <v>3</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="L29" s="14">
+        <v>4</v>
+      </c>
+      <c r="M29" s="14">
+        <v>5</v>
+      </c>
+      <c r="N29" s="14">
+        <v>5</v>
+      </c>
+      <c r="O29" s="14">
+        <v>3</v>
+      </c>
+      <c r="P29" s="14">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="R29" s="14">
+        <v>5</v>
+      </c>
+      <c r="S29" s="14">
+        <v>5</v>
+      </c>
+      <c r="T29" s="14">
+        <v>4</v>
+      </c>
+      <c r="U29" s="14">
+        <v>5</v>
+      </c>
+      <c r="V29" s="14">
+        <v>5</v>
+      </c>
+      <c r="W29" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="X29" s="14">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="14">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC29" s="16" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D5"/>
-    <hyperlink r:id="rId5" ref="D6"/>
-    <hyperlink r:id="rId6" ref="D7"/>
-    <hyperlink r:id="rId7" ref="D8"/>
-    <hyperlink r:id="rId8" ref="D9"/>
-    <hyperlink r:id="rId9" ref="D10"/>
-    <hyperlink r:id="rId10" ref="D11"/>
-    <hyperlink r:id="rId11" ref="D12"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="18.88"/>
-    <col customWidth="1" min="3" max="3" width="31.63"/>
-    <col customWidth="1" min="4" max="4" width="48.25"/>
-    <col customWidth="1" min="5" max="5" width="20.0"/>
-    <col customWidth="1" min="6" max="11" width="18.88"/>
+    <col min="1" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="31.6328125" customWidth="1"/>
+    <col min="4" max="4" width="48.26953125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="11" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,10 +4061,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45934.411974201386</v>
       </c>
@@ -2295,61 +4078,61 @@
         <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="20">
-        <v>45935.6874683912</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>45935.687468391203</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45935.68841295139</v>
+        <v>45935.688412951393</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="20">
-        <v>45937.37473196759</v>
-      </c>
-      <c r="B5" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>45937.374731967589</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45937.375662604165</v>
       </c>
@@ -2363,214 +4146,214 @@
         <v>67</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>45939.398966747685</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="12">
-        <v>45939.39946393519</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45939.399463935188</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>45939.42655188657</v>
+        <v>45939.426551886572</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45939.468482152777</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="12">
-        <v>45939.46848215278</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <v>45939.46881931713</v>
+        <v>45939.468819317131</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="12">
-        <v>45939.46913090278</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45939.469130902777</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>45939.469453136575</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="12">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>45939.47011765046</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
-        <v>45939.47123679398</v>
+        <v>45939.471236793979</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="12">
-        <v>45939.4715616551</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45939.471561655097</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
-        <v>45939.4719315625</v>
+        <v>45939.471931562497</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="12">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>45940.769390347225</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="E18" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>45941.749629618054</v>
       </c>
@@ -2578,35 +4361,35 @@
         <v>25</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="12">
-        <v>45942.95912383102</v>
-      </c>
-      <c r="B20" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45942.959123831017</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="E20" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>45943.75938251158</v>
+        <v>45943.759382511576</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>39</v>
@@ -2618,27 +4401,27 @@
         <v>41</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="12">
-        <v>45943.76068791667</v>
-      </c>
-      <c r="B22" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45943.760687916671</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="E22" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>45943.762280532406</v>
       </c>
@@ -2652,63 +4435,63 @@
         <v>48</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="12">
-        <v>45943.77945240741</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45943.779452407412</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>45943.78019240741</v>
+        <v>45943.780192407408</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="12">
-        <v>45943.80242072917</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45943.802420729167</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <v>45943.80317114583</v>
+        <v>45943.803171145832</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>58</v>
@@ -2720,27 +4503,27 @@
         <v>60</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="12">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>45943.80344609954</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="D28" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>45943.80411287037</v>
       </c>
@@ -2754,349 +4537,349 @@
         <v>79</v>
       </c>
       <c r="E29" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45943.805116388889</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>45943.818343206018</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="12">
-        <v>45943.80511638889</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="8">
-        <v>45943.81834320602</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="D31" s="10" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="E31" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>45943.818666157407</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="12">
-        <v>45943.81866615741</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="D32" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>45943.819046770834</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="E33" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>45943.81948928241</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="12">
-        <v>45943.81948928241</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="D34" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>45943.819892604166</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="E35" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>45943.82017013889</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="12">
-        <v>45943.82017013889</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="D36" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>45943.820890856485</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="12">
-        <v>45943.88293743056</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>45943.882937430557</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <v>45944.39525381944</v>
+        <v>45944.395253819443</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="12">
-        <v>45944.41738416666</v>
-      </c>
-      <c r="B40" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>45944.417384166663</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="E40" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>45944.88423947917</v>
+        <v>45944.884239479172</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="12">
-        <v>45945.5456787963</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>45945.545678796298</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <v>45946.02685496528</v>
+        <v>45946.026854965283</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="12">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>45946.029433668984</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="B44" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="13" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
-        <v>45946.03070726852</v>
+        <v>45946.030707268517</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="16">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="A46" s="13">
         <v>45946.749427523144</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="18" t="s">
+      <c r="B46" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="19" t="s">
-        <v>85</v>
+      <c r="E46" s="16" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D5"/>
-    <hyperlink r:id="rId5" ref="D6"/>
-    <hyperlink r:id="rId6" ref="D7"/>
-    <hyperlink r:id="rId7" ref="D8"/>
-    <hyperlink r:id="rId8" ref="D9"/>
-    <hyperlink r:id="rId9" ref="D10"/>
-    <hyperlink r:id="rId10" ref="D11"/>
-    <hyperlink r:id="rId11" ref="D12"/>
-    <hyperlink r:id="rId12" ref="D13"/>
-    <hyperlink r:id="rId13" ref="D14"/>
-    <hyperlink r:id="rId14" ref="D15"/>
-    <hyperlink r:id="rId15" ref="D16"/>
-    <hyperlink r:id="rId16" ref="D17"/>
-    <hyperlink r:id="rId17" ref="D18"/>
-    <hyperlink r:id="rId18" ref="D19"/>
-    <hyperlink r:id="rId19" ref="D20"/>
-    <hyperlink r:id="rId20" ref="D21"/>
-    <hyperlink r:id="rId21" ref="D22"/>
-    <hyperlink r:id="rId22" ref="D23"/>
-    <hyperlink r:id="rId23" ref="D24"/>
-    <hyperlink r:id="rId24" ref="D25"/>
-    <hyperlink r:id="rId25" ref="D26"/>
-    <hyperlink r:id="rId26" ref="D27"/>
-    <hyperlink r:id="rId27" ref="D28"/>
-    <hyperlink r:id="rId28" ref="D29"/>
-    <hyperlink r:id="rId29" ref="D30"/>
-    <hyperlink r:id="rId30" ref="D31"/>
-    <hyperlink r:id="rId31" ref="D32"/>
-    <hyperlink r:id="rId32" ref="D33"/>
-    <hyperlink r:id="rId33" ref="D34"/>
-    <hyperlink r:id="rId34" ref="D35"/>
-    <hyperlink r:id="rId35" ref="D36"/>
-    <hyperlink r:id="rId36" ref="D37"/>
-    <hyperlink r:id="rId37" ref="D38"/>
-    <hyperlink r:id="rId38" ref="D39"/>
-    <hyperlink r:id="rId39" ref="D40"/>
-    <hyperlink r:id="rId40" ref="D41"/>
-    <hyperlink r:id="rId41" ref="D42"/>
-    <hyperlink r:id="rId42" ref="D43"/>
-    <hyperlink r:id="rId43" ref="D44"/>
-    <hyperlink r:id="rId44" ref="D45"/>
-    <hyperlink r:id="rId45" ref="D46"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
   </hyperlinks>
-  <drawing r:id="rId46"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId48"/>
+    <tablePart r:id="rId46"/>
   </tableParts>
 </worksheet>
 </file>